--- a/test_voprosi.xlsx
+++ b/test_voprosi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" state="visible" r:id="rId2"/>
@@ -351,11 +351,11 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.19"/>
@@ -745,11 +745,11 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -810,6 +810,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
